--- a/biology/Botanique/Myrianthus/Myrianthus.xlsx
+++ b/biology/Botanique/Myrianthus/Myrianthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrianthus est un genre de plantes à fleurs de la famille des Cecropiaceae ou Urticaceae selon la classification phylogénétique. Il est constitué d'arbres dioïques. Les espèces du genre Myrianthus portent un grand nombre de fleurs sur leurs inflorescences et se trouvent dans les forêts d'Afrique tropicale. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 septembre 2017) :
 Myrianthus arboreus Beauv.
 Myrianthus cuneifolius (Engl.) Engl.
 Myrianthus fosi Cheek
@@ -522,15 +536,15 @@
 Myrianthus preussii Engl.
 Myrianthus scandens Louis ex Hauman
 Myrianthus serratus (Trec.) Benth.
-Selon GRIN            (3 septembre 2017)[3] :
+Selon GRIN            (3 septembre 2017) :
 Myrianthus arboreus P. Beauv.
 Myrianthus libericus Rendle
-Selon NCBI  (3 septembre 2017)[4] :
+Selon NCBI  (3 septembre 2017) :
 Myrianthus arboreus
 Myrianthus holstii
 Myrianthus preussii
 Myrianthus serratus
-Selon The Plant List            (3 septembre 2017)[5] :
+Selon The Plant List            (3 septembre 2017) :
 Myrianthus arboreus P.Beauv.
 Myrianthus cuneifolius Engl.
 Myrianthus holstii Engl.
@@ -538,7 +552,7 @@
 Myrianthus preussii Engl.
 Myrianthus scandens Louis ex Hauman
 Myrianthus serratus (Trécul) Benth.
-Selon Tropicos                                           (3 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Myrianthus arboreus P. Beauv.
 Myrianthus cuneifolius Engl.
 Myrianthus holstii Engl.
